--- a/data_pasca.xlsx
+++ b/data_pasca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2022\04_UMM\22umm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC714F65-7065-4198-B17A-84DB930E610F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE0714B-EEED-4FAB-AA03-95F31830D685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12781,194 +12781,194 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="J2">
-            <v>22512240</v>
+            <v>22510140</v>
           </cell>
           <cell r="K2">
-            <v>7784220001</v>
+            <v>7771220001</v>
           </cell>
         </row>
         <row r="3">
           <cell r="J3">
-            <v>22511744</v>
+            <v>22510674</v>
           </cell>
           <cell r="K3">
-            <v>7783220006</v>
+            <v>7771220002</v>
           </cell>
         </row>
         <row r="4">
           <cell r="J4">
-            <v>22512059</v>
+            <v>22512374</v>
           </cell>
           <cell r="K4">
-            <v>7783220005</v>
+            <v>7772220001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="J5">
-            <v>22511649</v>
+            <v>22512315</v>
           </cell>
           <cell r="K5">
-            <v>7783220004</v>
+            <v>7772220002</v>
           </cell>
         </row>
         <row r="6">
           <cell r="J6">
-            <v>22511889</v>
+            <v>22510221</v>
           </cell>
           <cell r="K6">
-            <v>7783220003</v>
+            <v>7772220003</v>
           </cell>
         </row>
         <row r="7">
           <cell r="J7">
-            <v>22511016</v>
+            <v>22510054</v>
           </cell>
           <cell r="K7">
-            <v>7783220002</v>
+            <v>7772220004</v>
           </cell>
         </row>
         <row r="8">
           <cell r="J8">
-            <v>22511989</v>
+            <v>22512445</v>
           </cell>
           <cell r="K8">
-            <v>7783220001</v>
+            <v>7772220005</v>
           </cell>
         </row>
         <row r="9">
           <cell r="J9">
-            <v>22511327</v>
+            <v>22510688</v>
           </cell>
           <cell r="K9">
-            <v>7782220011</v>
+            <v>7773220001</v>
           </cell>
         </row>
         <row r="10">
           <cell r="J10">
-            <v>22511211</v>
+            <v>22510640</v>
           </cell>
           <cell r="K10">
-            <v>7782220010</v>
+            <v>7773220002</v>
           </cell>
         </row>
         <row r="11">
           <cell r="J11">
-            <v>22511811</v>
+            <v>22512251</v>
           </cell>
           <cell r="K11">
-            <v>7782220009</v>
+            <v>7773220003</v>
           </cell>
         </row>
         <row r="12">
           <cell r="J12">
-            <v>22511497</v>
+            <v>22510374</v>
           </cell>
           <cell r="K12">
-            <v>7782220008</v>
+            <v>7773220004</v>
           </cell>
         </row>
         <row r="13">
           <cell r="J13">
-            <v>22511295</v>
+            <v>22510327</v>
           </cell>
           <cell r="K13">
-            <v>7782220007</v>
+            <v>7773220005</v>
           </cell>
         </row>
         <row r="14">
           <cell r="J14">
-            <v>22511367</v>
+            <v>22510426</v>
           </cell>
           <cell r="K14">
-            <v>7782220006</v>
+            <v>7774220001</v>
           </cell>
         </row>
         <row r="15">
           <cell r="J15">
-            <v>22511885</v>
+            <v>22512370</v>
           </cell>
           <cell r="K15">
-            <v>7782220005</v>
+            <v>7774220002</v>
           </cell>
         </row>
         <row r="16">
           <cell r="J16">
-            <v>22511147</v>
+            <v>22510757</v>
           </cell>
           <cell r="K16">
-            <v>7782220004</v>
+            <v>7775220001</v>
           </cell>
         </row>
         <row r="17">
           <cell r="J17">
-            <v>22512120</v>
+            <v>22510606</v>
           </cell>
           <cell r="K17">
-            <v>7782220003</v>
+            <v>7776220001</v>
           </cell>
         </row>
         <row r="18">
           <cell r="J18">
-            <v>22512015</v>
+            <v>22510574</v>
           </cell>
           <cell r="K18">
-            <v>7782220002</v>
+            <v>7776220002</v>
           </cell>
         </row>
         <row r="19">
           <cell r="J19">
-            <v>22511628</v>
+            <v>22512300</v>
           </cell>
           <cell r="K19">
-            <v>7782220001</v>
+            <v>7776220003</v>
           </cell>
         </row>
         <row r="20">
           <cell r="J20">
-            <v>22510253</v>
+            <v>22510133</v>
           </cell>
           <cell r="K20">
-            <v>7781220001</v>
+            <v>7776220004</v>
           </cell>
         </row>
         <row r="21">
           <cell r="J21">
-            <v>22510858</v>
+            <v>22510118</v>
           </cell>
           <cell r="K21">
-            <v>7780220002</v>
+            <v>7776220005</v>
           </cell>
         </row>
         <row r="22">
           <cell r="J22">
-            <v>22510854</v>
+            <v>22512392</v>
           </cell>
           <cell r="K22">
-            <v>7780220001</v>
+            <v>7776220006</v>
           </cell>
         </row>
         <row r="23">
           <cell r="J23">
-            <v>22510871</v>
+            <v>22510975</v>
           </cell>
           <cell r="K23">
-            <v>7779220001</v>
+            <v>7776220007</v>
           </cell>
         </row>
         <row r="24">
           <cell r="J24">
-            <v>22510305</v>
+            <v>22510626</v>
           </cell>
           <cell r="K24">
-            <v>7778220004</v>
+            <v>7777220001</v>
           </cell>
         </row>
         <row r="25">
           <cell r="J25">
-            <v>22510753</v>
+            <v>22510338</v>
           </cell>
           <cell r="K25">
-            <v>7778220003</v>
+            <v>7778220001</v>
           </cell>
         </row>
         <row r="26">
@@ -12981,882 +12981,903 @@
         </row>
         <row r="27">
           <cell r="J27">
-            <v>22510338</v>
+            <v>22510753</v>
           </cell>
           <cell r="K27">
-            <v>7778220001</v>
+            <v>7778220003</v>
           </cell>
         </row>
         <row r="28">
           <cell r="J28">
-            <v>22510626</v>
+            <v>22510305</v>
           </cell>
           <cell r="K28">
-            <v>7777220001</v>
+            <v>7778220004</v>
           </cell>
         </row>
         <row r="29">
           <cell r="J29">
-            <v>22510975</v>
+            <v>22510871</v>
           </cell>
           <cell r="K29">
-            <v>7776220007</v>
+            <v>7779220001</v>
           </cell>
         </row>
         <row r="30">
           <cell r="J30">
-            <v>22512392</v>
+            <v>22510854</v>
           </cell>
           <cell r="K30">
-            <v>7776220006</v>
+            <v>7780220001</v>
           </cell>
         </row>
         <row r="31">
           <cell r="J31">
-            <v>22510118</v>
+            <v>22510858</v>
           </cell>
           <cell r="K31">
-            <v>7776220005</v>
+            <v>7780220002</v>
           </cell>
         </row>
         <row r="32">
           <cell r="J32">
-            <v>22510133</v>
+            <v>22510253</v>
           </cell>
           <cell r="K32">
-            <v>7776220004</v>
+            <v>7781220001</v>
           </cell>
         </row>
         <row r="33">
           <cell r="J33">
-            <v>22512300</v>
+            <v>22511628</v>
           </cell>
           <cell r="K33">
-            <v>7776220003</v>
+            <v>7782220001</v>
           </cell>
         </row>
         <row r="34">
           <cell r="J34">
-            <v>22510574</v>
+            <v>22512015</v>
           </cell>
           <cell r="K34">
-            <v>7776220002</v>
+            <v>7782220002</v>
           </cell>
         </row>
         <row r="35">
           <cell r="J35">
-            <v>22510606</v>
+            <v>22512120</v>
           </cell>
           <cell r="K35">
-            <v>7776220001</v>
+            <v>7782220003</v>
           </cell>
         </row>
         <row r="36">
           <cell r="J36">
-            <v>22510757</v>
+            <v>22511147</v>
           </cell>
           <cell r="K36">
-            <v>7775220001</v>
+            <v>7782220004</v>
           </cell>
         </row>
         <row r="37">
           <cell r="J37">
-            <v>22510426</v>
+            <v>22511885</v>
           </cell>
           <cell r="K37">
-            <v>7774220001</v>
+            <v>7782220005</v>
           </cell>
         </row>
         <row r="38">
           <cell r="J38">
-            <v>22512251</v>
+            <v>22511367</v>
           </cell>
           <cell r="K38">
-            <v>7773220003</v>
+            <v>7782220006</v>
           </cell>
         </row>
         <row r="39">
           <cell r="J39">
-            <v>22510640</v>
+            <v>22511295</v>
           </cell>
           <cell r="K39">
-            <v>7773220002</v>
+            <v>7782220007</v>
           </cell>
         </row>
         <row r="40">
           <cell r="J40">
-            <v>22510688</v>
+            <v>22511497</v>
           </cell>
           <cell r="K40">
-            <v>7773220001</v>
+            <v>7782220008</v>
           </cell>
         </row>
         <row r="41">
           <cell r="J41">
-            <v>22510054</v>
+            <v>22511811</v>
           </cell>
           <cell r="K41">
-            <v>7772220004</v>
+            <v>7782220009</v>
           </cell>
         </row>
         <row r="42">
           <cell r="J42">
-            <v>22510221</v>
+            <v>22511211</v>
           </cell>
           <cell r="K42">
-            <v>7772220003</v>
+            <v>7782220010</v>
           </cell>
         </row>
         <row r="43">
           <cell r="J43">
-            <v>22512315</v>
+            <v>22511327</v>
           </cell>
           <cell r="K43">
-            <v>7772220002</v>
+            <v>7782220011</v>
           </cell>
         </row>
         <row r="44">
           <cell r="J44">
-            <v>22512374</v>
+            <v>22511802</v>
           </cell>
           <cell r="K44">
-            <v>7772220001</v>
+            <v>7782220012</v>
           </cell>
         </row>
         <row r="45">
           <cell r="J45">
-            <v>22510674</v>
+            <v>22511989</v>
           </cell>
           <cell r="K45">
-            <v>7771220002</v>
+            <v>7783220001</v>
           </cell>
         </row>
         <row r="46">
           <cell r="J46">
-            <v>22510140</v>
+            <v>22511016</v>
           </cell>
           <cell r="K46">
-            <v>7771220001</v>
+            <v>7783220002</v>
           </cell>
         </row>
         <row r="47">
           <cell r="J47">
-            <v>22511094</v>
+            <v>22511889</v>
+          </cell>
+          <cell r="K47">
+            <v>7783220003</v>
           </cell>
         </row>
         <row r="48">
           <cell r="J48">
-            <v>22510420</v>
+            <v>22511649</v>
+          </cell>
+          <cell r="K48">
+            <v>7783220004</v>
           </cell>
         </row>
         <row r="49">
           <cell r="J49">
-            <v>22510546</v>
+            <v>22512059</v>
+          </cell>
+          <cell r="K49">
+            <v>7783220005</v>
           </cell>
         </row>
         <row r="50">
           <cell r="J50">
-            <v>22510109</v>
+            <v>22511744</v>
+          </cell>
+          <cell r="K50">
+            <v>7783220006</v>
           </cell>
         </row>
         <row r="51">
           <cell r="J51">
-            <v>22510479</v>
+            <v>22512038</v>
+          </cell>
+          <cell r="K51">
+            <v>7783220007</v>
           </cell>
         </row>
         <row r="52">
           <cell r="J52">
-            <v>22510291</v>
+            <v>22511837</v>
+          </cell>
+          <cell r="K52">
+            <v>7783220008</v>
           </cell>
         </row>
         <row r="53">
           <cell r="J53">
-            <v>22510465</v>
+            <v>22512240</v>
+          </cell>
+          <cell r="K53">
+            <v>7784220001</v>
           </cell>
         </row>
         <row r="54">
           <cell r="J54">
-            <v>22510945</v>
+            <v>22511094</v>
           </cell>
         </row>
         <row r="55">
           <cell r="J55">
-            <v>22510598</v>
+            <v>22510420</v>
           </cell>
         </row>
         <row r="56">
           <cell r="J56">
-            <v>22510074</v>
+            <v>22510546</v>
           </cell>
         </row>
         <row r="57">
           <cell r="J57">
-            <v>22510894</v>
+            <v>22510109</v>
           </cell>
         </row>
         <row r="58">
           <cell r="J58">
-            <v>22510355</v>
+            <v>22510479</v>
           </cell>
         </row>
         <row r="59">
           <cell r="J59">
-            <v>22510824</v>
+            <v>22510291</v>
           </cell>
         </row>
         <row r="60">
           <cell r="J60">
-            <v>22510979</v>
+            <v>22510465</v>
           </cell>
         </row>
         <row r="61">
           <cell r="J61">
-            <v>22510926</v>
+            <v>22510945</v>
           </cell>
         </row>
         <row r="62">
           <cell r="J62">
-            <v>22510414</v>
+            <v>22510598</v>
           </cell>
         </row>
         <row r="63">
           <cell r="J63">
-            <v>22510679</v>
+            <v>22510074</v>
           </cell>
         </row>
         <row r="64">
           <cell r="J64">
-            <v>22510428</v>
+            <v>22510894</v>
           </cell>
         </row>
         <row r="65">
           <cell r="J65">
-            <v>22510501</v>
+            <v>22510355</v>
           </cell>
         </row>
         <row r="66">
           <cell r="J66">
-            <v>22511837</v>
+            <v>22510824</v>
           </cell>
         </row>
         <row r="67">
           <cell r="J67">
-            <v>22510185</v>
+            <v>22510979</v>
           </cell>
         </row>
         <row r="68">
           <cell r="J68">
-            <v>22510675</v>
+            <v>22510926</v>
           </cell>
         </row>
         <row r="69">
           <cell r="J69">
-            <v>22511045</v>
+            <v>22510414</v>
           </cell>
         </row>
         <row r="70">
           <cell r="J70">
-            <v>22511362</v>
+            <v>22510679</v>
           </cell>
         </row>
         <row r="71">
           <cell r="J71">
-            <v>22510602</v>
+            <v>22510428</v>
           </cell>
         </row>
         <row r="72">
           <cell r="J72">
-            <v>22510285</v>
+            <v>22510501</v>
           </cell>
         </row>
         <row r="73">
           <cell r="J73">
-            <v>22510695</v>
+            <v>22510185</v>
           </cell>
         </row>
         <row r="74">
           <cell r="J74">
-            <v>22510504</v>
+            <v>22510675</v>
           </cell>
         </row>
         <row r="75">
           <cell r="J75">
-            <v>22511681</v>
+            <v>22511045</v>
           </cell>
         </row>
         <row r="76">
           <cell r="J76">
-            <v>22510672</v>
+            <v>22511362</v>
           </cell>
         </row>
         <row r="77">
           <cell r="J77">
-            <v>22510359</v>
+            <v>22510602</v>
           </cell>
         </row>
         <row r="78">
           <cell r="J78">
-            <v>22510203</v>
+            <v>22510285</v>
           </cell>
         </row>
         <row r="79">
           <cell r="J79">
-            <v>22510669</v>
+            <v>22510695</v>
           </cell>
         </row>
         <row r="80">
           <cell r="J80">
-            <v>22511176</v>
+            <v>22510504</v>
           </cell>
         </row>
         <row r="81">
           <cell r="J81">
-            <v>22510787</v>
+            <v>22511681</v>
           </cell>
         </row>
         <row r="82">
           <cell r="J82">
-            <v>22510594</v>
+            <v>22510672</v>
           </cell>
         </row>
         <row r="83">
           <cell r="J83">
-            <v>22510162</v>
+            <v>22510359</v>
           </cell>
         </row>
         <row r="84">
           <cell r="J84">
-            <v>22510205</v>
+            <v>22510203</v>
           </cell>
         </row>
         <row r="85">
           <cell r="J85">
-            <v>22510738</v>
+            <v>22510669</v>
           </cell>
         </row>
         <row r="86">
           <cell r="J86">
-            <v>22510374</v>
+            <v>22511176</v>
           </cell>
         </row>
         <row r="87">
           <cell r="J87">
-            <v>22510327</v>
+            <v>22510787</v>
           </cell>
         </row>
         <row r="88">
           <cell r="J88">
-            <v>22510090</v>
+            <v>22510594</v>
           </cell>
         </row>
         <row r="89">
           <cell r="J89">
-            <v>22510922</v>
+            <v>22510162</v>
           </cell>
         </row>
         <row r="90">
           <cell r="J90">
-            <v>22510049</v>
+            <v>22510205</v>
           </cell>
         </row>
         <row r="91">
           <cell r="J91">
-            <v>22510748</v>
+            <v>22510738</v>
           </cell>
         </row>
         <row r="92">
           <cell r="J92">
-            <v>22510247</v>
+            <v>22510090</v>
           </cell>
         </row>
         <row r="93">
           <cell r="J93">
-            <v>22510225</v>
+            <v>22510922</v>
           </cell>
         </row>
         <row r="94">
           <cell r="J94">
-            <v>22510767</v>
+            <v>22510049</v>
           </cell>
         </row>
         <row r="95">
           <cell r="J95">
-            <v>22510891</v>
+            <v>22510748</v>
           </cell>
         </row>
         <row r="96">
           <cell r="J96">
-            <v>22510483</v>
+            <v>22510247</v>
           </cell>
         </row>
         <row r="97">
           <cell r="J97">
-            <v>22510927</v>
+            <v>22510225</v>
           </cell>
         </row>
         <row r="98">
           <cell r="J98">
-            <v>22510275</v>
+            <v>22510767</v>
           </cell>
         </row>
         <row r="99">
           <cell r="J99">
-            <v>22510298</v>
+            <v>22510891</v>
           </cell>
         </row>
         <row r="100">
           <cell r="J100">
-            <v>22510809</v>
+            <v>22510483</v>
           </cell>
         </row>
         <row r="101">
           <cell r="J101">
-            <v>22510372</v>
+            <v>22510927</v>
           </cell>
         </row>
         <row r="102">
           <cell r="J102">
-            <v>22510829</v>
+            <v>22510275</v>
           </cell>
         </row>
         <row r="103">
           <cell r="J103">
-            <v>22511226</v>
+            <v>22510298</v>
           </cell>
         </row>
         <row r="104">
           <cell r="J104">
-            <v>22511175</v>
+            <v>22510809</v>
           </cell>
         </row>
         <row r="105">
           <cell r="J105">
-            <v>22510396</v>
+            <v>22510372</v>
           </cell>
         </row>
         <row r="106">
           <cell r="J106">
-            <v>22510562</v>
+            <v>22510829</v>
           </cell>
         </row>
         <row r="107">
           <cell r="J107">
-            <v>22510502</v>
+            <v>22511226</v>
           </cell>
         </row>
         <row r="108">
           <cell r="J108">
-            <v>22512356</v>
+            <v>22511175</v>
           </cell>
         </row>
         <row r="109">
           <cell r="J109">
-            <v>22510969</v>
+            <v>22510396</v>
           </cell>
         </row>
         <row r="110">
           <cell r="J110">
-            <v>22510248</v>
+            <v>22510562</v>
           </cell>
         </row>
         <row r="111">
           <cell r="J111">
-            <v>22510847</v>
+            <v>22510502</v>
           </cell>
         </row>
         <row r="112">
           <cell r="J112">
-            <v>22510781</v>
+            <v>22512356</v>
           </cell>
         </row>
         <row r="113">
           <cell r="J113">
-            <v>22510950</v>
+            <v>22510969</v>
           </cell>
         </row>
         <row r="114">
           <cell r="J114">
-            <v>22511647</v>
+            <v>22510248</v>
           </cell>
         </row>
         <row r="115">
           <cell r="J115">
-            <v>22510489</v>
+            <v>22510847</v>
           </cell>
         </row>
         <row r="116">
           <cell r="J116">
-            <v>22510121</v>
+            <v>22510781</v>
           </cell>
         </row>
         <row r="117">
           <cell r="J117">
-            <v>22510134</v>
+            <v>22510950</v>
           </cell>
         </row>
         <row r="118">
           <cell r="J118">
-            <v>22510456</v>
+            <v>22511647</v>
           </cell>
         </row>
         <row r="119">
           <cell r="J119">
-            <v>22510644</v>
+            <v>22510489</v>
           </cell>
         </row>
         <row r="120">
           <cell r="J120">
-            <v>22510532</v>
+            <v>22510121</v>
           </cell>
         </row>
         <row r="121">
           <cell r="J121">
-            <v>22510560</v>
+            <v>22510134</v>
           </cell>
         </row>
         <row r="122">
           <cell r="J122">
-            <v>22512358</v>
+            <v>22510456</v>
           </cell>
         </row>
         <row r="123">
           <cell r="J123">
-            <v>22510811</v>
+            <v>22510644</v>
           </cell>
         </row>
         <row r="124">
           <cell r="J124">
-            <v>22511802</v>
+            <v>22510532</v>
           </cell>
         </row>
         <row r="125">
           <cell r="J125">
-            <v>22510494</v>
+            <v>22510560</v>
           </cell>
         </row>
         <row r="126">
           <cell r="J126">
-            <v>22512445</v>
+            <v>22512358</v>
           </cell>
         </row>
         <row r="127">
           <cell r="J127">
-            <v>22510071</v>
+            <v>22510811</v>
           </cell>
         </row>
         <row r="128">
           <cell r="J128">
-            <v>22510279</v>
+            <v>22510494</v>
           </cell>
         </row>
         <row r="129">
           <cell r="J129">
-            <v>22510653</v>
+            <v>22510071</v>
           </cell>
         </row>
         <row r="130">
           <cell r="J130">
-            <v>22510928</v>
+            <v>22510279</v>
           </cell>
         </row>
         <row r="131">
           <cell r="J131">
-            <v>22510023</v>
+            <v>22510653</v>
           </cell>
         </row>
         <row r="132">
           <cell r="J132">
-            <v>22511621</v>
+            <v>22510928</v>
           </cell>
         </row>
         <row r="133">
           <cell r="J133">
-            <v>22510021</v>
+            <v>22510023</v>
           </cell>
         </row>
         <row r="134">
           <cell r="J134">
-            <v>22510998</v>
+            <v>22511621</v>
           </cell>
         </row>
         <row r="135">
           <cell r="J135">
-            <v>22510358</v>
+            <v>22510021</v>
           </cell>
         </row>
         <row r="136">
           <cell r="J136">
-            <v>22512369</v>
+            <v>22510998</v>
           </cell>
         </row>
         <row r="137">
           <cell r="J137">
-            <v>22512279</v>
+            <v>22510358</v>
           </cell>
         </row>
         <row r="138">
           <cell r="J138">
-            <v>22512483</v>
+            <v>22512369</v>
           </cell>
         </row>
         <row r="139">
           <cell r="J139">
-            <v>22512458</v>
+            <v>22512279</v>
           </cell>
         </row>
         <row r="140">
           <cell r="J140">
-            <v>22510117</v>
+            <v>22512483</v>
           </cell>
         </row>
         <row r="141">
           <cell r="J141">
-            <v>22512468</v>
+            <v>22512458</v>
           </cell>
         </row>
         <row r="142">
           <cell r="J142">
-            <v>22512304</v>
+            <v>22510117</v>
           </cell>
         </row>
         <row r="143">
           <cell r="J143">
-            <v>22510828</v>
+            <v>22512468</v>
           </cell>
         </row>
         <row r="144">
           <cell r="J144">
-            <v>22512466</v>
+            <v>22512304</v>
           </cell>
         </row>
         <row r="145">
           <cell r="J145">
-            <v>22512038</v>
+            <v>22510828</v>
           </cell>
         </row>
         <row r="146">
           <cell r="J146">
-            <v>22512338</v>
+            <v>22512466</v>
           </cell>
         </row>
         <row r="147">
           <cell r="J147">
-            <v>22512195</v>
+            <v>22512338</v>
           </cell>
         </row>
         <row r="148">
           <cell r="J148">
-            <v>22512351</v>
+            <v>22512195</v>
           </cell>
         </row>
         <row r="149">
           <cell r="J149">
-            <v>22512470</v>
+            <v>22512351</v>
           </cell>
         </row>
         <row r="150">
           <cell r="J150">
-            <v>22512137</v>
+            <v>22512470</v>
           </cell>
         </row>
         <row r="151">
           <cell r="J151">
-            <v>22512234</v>
+            <v>22512137</v>
           </cell>
         </row>
         <row r="152">
           <cell r="J152">
-            <v>22510825</v>
+            <v>22512234</v>
           </cell>
         </row>
         <row r="153">
           <cell r="J153">
-            <v>22512256</v>
+            <v>22510825</v>
           </cell>
         </row>
         <row r="154">
           <cell r="J154">
-            <v>22511230</v>
+            <v>22512256</v>
           </cell>
         </row>
         <row r="155">
           <cell r="J155">
-            <v>22512215</v>
+            <v>22511230</v>
           </cell>
         </row>
         <row r="156">
           <cell r="J156">
-            <v>22510443</v>
+            <v>22512215</v>
           </cell>
         </row>
         <row r="157">
           <cell r="J157">
-            <v>22512325</v>
+            <v>22510443</v>
           </cell>
         </row>
         <row r="158">
           <cell r="J158">
-            <v>22510440</v>
+            <v>22512325</v>
           </cell>
         </row>
         <row r="159">
           <cell r="J159">
-            <v>22512476</v>
+            <v>22510440</v>
           </cell>
         </row>
         <row r="160">
           <cell r="J160">
-            <v>22512100</v>
+            <v>22512476</v>
           </cell>
         </row>
         <row r="161">
           <cell r="J161">
-            <v>22512363</v>
+            <v>22512100</v>
           </cell>
         </row>
         <row r="162">
           <cell r="J162">
-            <v>22512341</v>
+            <v>22512363</v>
           </cell>
         </row>
         <row r="163">
           <cell r="J163">
-            <v>22512280</v>
+            <v>22512341</v>
           </cell>
         </row>
         <row r="164">
           <cell r="J164">
-            <v>22510286</v>
+            <v>22512280</v>
           </cell>
         </row>
         <row r="165">
           <cell r="J165">
-            <v>22512286</v>
+            <v>22510286</v>
           </cell>
         </row>
         <row r="166">
           <cell r="J166">
-            <v>22511080</v>
+            <v>22512286</v>
           </cell>
         </row>
         <row r="167">
           <cell r="J167">
-            <v>22510281</v>
+            <v>22511080</v>
           </cell>
         </row>
         <row r="168">
           <cell r="J168">
-            <v>22512472</v>
+            <v>22510281</v>
           </cell>
         </row>
         <row r="169">
           <cell r="J169">
-            <v>22512259</v>
+            <v>22512472</v>
           </cell>
         </row>
         <row r="170">
           <cell r="J170">
-            <v>22510415</v>
+            <v>22512259</v>
           </cell>
         </row>
         <row r="171">
           <cell r="J171">
-            <v>22512319</v>
+            <v>22510415</v>
           </cell>
         </row>
         <row r="172">
           <cell r="J172">
-            <v>22512333</v>
+            <v>22512319</v>
           </cell>
         </row>
         <row r="173">
           <cell r="J173">
-            <v>22511853</v>
+            <v>22512333</v>
           </cell>
         </row>
         <row r="174">
           <cell r="J174">
-            <v>22512306</v>
+            <v>22511853</v>
           </cell>
         </row>
         <row r="175">
           <cell r="J175">
-            <v>22512028</v>
+            <v>22512306</v>
           </cell>
         </row>
         <row r="176">
           <cell r="J176">
-            <v>22512388</v>
+            <v>22512028</v>
           </cell>
         </row>
         <row r="177">
           <cell r="J177">
-            <v>22510312</v>
+            <v>22512388</v>
           </cell>
         </row>
         <row r="178">
           <cell r="J178">
-            <v>22512479</v>
+            <v>22510312</v>
           </cell>
         </row>
         <row r="179">
           <cell r="J179">
-            <v>22512253</v>
+            <v>22512479</v>
           </cell>
         </row>
         <row r="180">
           <cell r="J180">
-            <v>22512395</v>
+            <v>22512253</v>
           </cell>
         </row>
         <row r="181">
           <cell r="J181">
-            <v>22512452</v>
+            <v>22512395</v>
           </cell>
         </row>
         <row r="182">
           <cell r="J182">
-            <v>22512447</v>
+            <v>22512452</v>
           </cell>
         </row>
         <row r="183">
           <cell r="J183">
-            <v>22512360</v>
+            <v>22512447</v>
           </cell>
         </row>
         <row r="184">
           <cell r="J184">
-            <v>22512391</v>
+            <v>22512360</v>
           </cell>
         </row>
         <row r="185">
           <cell r="J185">
-            <v>22512287</v>
+            <v>22512391</v>
           </cell>
         </row>
         <row r="186">
           <cell r="J186">
-            <v>22512313</v>
+            <v>22512287</v>
           </cell>
         </row>
         <row r="187">
           <cell r="J187">
-            <v>22512302</v>
+            <v>22512313</v>
           </cell>
         </row>
         <row r="188">
           <cell r="J188">
-            <v>22512283</v>
+            <v>22512302</v>
           </cell>
         </row>
         <row r="189">
           <cell r="J189">
-            <v>22512078</v>
+            <v>22512283</v>
           </cell>
         </row>
         <row r="190">
           <cell r="J190">
-            <v>22512370</v>
+            <v>22512078</v>
           </cell>
         </row>
         <row r="191">
@@ -14204,7 +14225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CG206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F184" sqref="F184"/>
     </sheetView>
@@ -15509,7 +15530,7 @@
       </c>
       <c r="L6" s="2">
         <f>_xlfn.IFNA(VLOOKUP(B6,[2]Data!$J$2:$K$380,2,FALSE),0)</f>
-        <v>0</v>
+        <v>7773220005</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>206</v>
@@ -15706,7 +15727,7 @@
       </c>
       <c r="CG6" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>tidak</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="7" spans="1:85" x14ac:dyDescent="0.25">
@@ -15748,7 +15769,7 @@
       </c>
       <c r="L7" s="2">
         <f>_xlfn.IFNA(VLOOKUP(B7,[2]Data!$J$2:$K$380,2,FALSE),0)</f>
-        <v>0</v>
+        <v>7773220004</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>206</v>
@@ -15945,7 +15966,7 @@
       </c>
       <c r="CG7" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>tidak</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="8" spans="1:85" x14ac:dyDescent="0.25">
@@ -25731,7 +25752,7 @@
       </c>
       <c r="L51" s="2">
         <f>_xlfn.IFNA(VLOOKUP(B51,[2]Data!$J$2:$K$380,2,FALSE),0)</f>
-        <v>0</v>
+        <v>7772220005</v>
       </c>
       <c r="M51" t="s">
         <v>227</v>
@@ -25915,7 +25936,7 @@
       </c>
       <c r="CG51" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>tidak</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="52" spans="1:85" x14ac:dyDescent="0.25">
@@ -40873,7 +40894,7 @@
       </c>
       <c r="L118" s="2">
         <f>_xlfn.IFNA(VLOOKUP(B118,[2]Data!$J$2:$K$380,2,FALSE),0)</f>
-        <v>0</v>
+        <v>7774220002</v>
       </c>
       <c r="M118" t="s">
         <v>212</v>
@@ -41057,7 +41078,7 @@
       </c>
       <c r="CG118" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>tidak</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="119" spans="1:85" x14ac:dyDescent="0.25">
@@ -56693,7 +56714,7 @@
       </c>
       <c r="L188" s="2">
         <f>_xlfn.IFNA(VLOOKUP(B188,[2]Data!$J$2:$K$380,2,FALSE),0)</f>
-        <v>0</v>
+        <v>7782220012</v>
       </c>
       <c r="M188" t="s">
         <v>75</v>
@@ -56877,7 +56898,7 @@
       </c>
       <c r="CG188" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>tidak</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="189" spans="1:85" x14ac:dyDescent="0.25">
@@ -57371,7 +57392,7 @@
       </c>
       <c r="L191" s="2">
         <f>_xlfn.IFNA(VLOOKUP(B191,[2]Data!$J$2:$K$380,2,FALSE),0)</f>
-        <v>0</v>
+        <v>7783220008</v>
       </c>
       <c r="M191" t="s">
         <v>652</v>
@@ -57555,7 +57576,7 @@
       </c>
       <c r="CG191" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>tidak</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="192" spans="1:85" x14ac:dyDescent="0.25">
@@ -58953,7 +58974,7 @@
       </c>
       <c r="L198" s="2">
         <f>_xlfn.IFNA(VLOOKUP(B198,[2]Data!$J$2:$K$380,2,FALSE),0)</f>
-        <v>0</v>
+        <v>7783220007</v>
       </c>
       <c r="M198" t="s">
         <v>652</v>
@@ -59137,7 +59158,7 @@
       </c>
       <c r="CG198" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>tidak</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="199" spans="1:85" x14ac:dyDescent="0.25">
@@ -61250,7 +61271,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" ref="C23:C37" si="2">VLOOKUP(A24,$H$22:$I$34,2,FALSE)</f>
+        <f t="shared" ref="C24:C37" si="2">VLOOKUP(A24,$H$22:$I$34,2,FALSE)</f>
         <v>9</v>
       </c>
       <c r="D24" s="3">
